--- a/QTM 499R/pakistan_df/param/param_ocr.xlsx
+++ b/QTM 499R/pakistan_df/param/param_ocr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/jpa2386_emory_edu/Documents/QTM-Research/QTM 499R/pakistan_df/param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{E63B878A-DA16-E549-B3F9-AC4BD737BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81BB0673-1576-7F41-A635-8F8DD87EC08E}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{E63B878A-DA16-E549-B3F9-AC4BD737BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{165BD0B4-DAF6-414D-8E47-E67450480C39}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{3B91811C-797F-524D-AD42-2D2C89E06741}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3B91811C-797F-524D-AD42-2D2C89E06741}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>page</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>vstart</t>
+  </si>
+  <si>
+    <t>## best I could do, doesn't grab everything accurately</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -111,9 +117,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +157,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -257,7 +263,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -399,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -407,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA074F2C-1446-344A-A264-6B5AFF658FA7}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="Y2" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,7 +424,7 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -458,7 +464,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -478,44 +484,172 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2455</v>
+      </c>
+      <c r="E4" s="1">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2470</v>
+      </c>
+      <c r="E5" s="1">
+        <v>110</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2455</v>
+      </c>
+      <c r="E6" s="1">
+        <v>112</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2455</v>
+      </c>
+      <c r="E7" s="1">
+        <v>112</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2475</v>
+      </c>
+      <c r="E8" s="1">
+        <v>105</v>
+      </c>
+      <c r="F8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1750</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2455</v>
+      </c>
+      <c r="E9" s="1">
+        <v>105</v>
+      </c>
+      <c r="F9" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1735</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2455</v>
+      </c>
+      <c r="E10" s="1">
+        <v>130</v>
+      </c>
+      <c r="F10" s="1">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1740</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1065</v>
+      </c>
+      <c r="E11" s="1">
+        <v>120</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/QTM 499R/pakistan_df/param/param_ocr.xlsx
+++ b/QTM 499R/pakistan_df/param/param_ocr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/jpa2386_emory_edu/Documents/QTM-Research/QTM 499R/pakistan_df/param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{E63B878A-DA16-E549-B3F9-AC4BD737BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{165BD0B4-DAF6-414D-8E47-E67450480C39}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{E63B878A-DA16-E549-B3F9-AC4BD737BB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAB97F9D-714E-7349-939C-E963FB0CEB9C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3B91811C-797F-524D-AD42-2D2C89E06741}"/>
   </bookViews>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA074F2C-1446-344A-A264-6B5AFF658FA7}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y2" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>2455</v>
       </c>
       <c r="E4" s="1">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F4" s="1">
         <v>50</v>
